--- a/tradept/Excel/Localization/english/Y游戏内文字_Strings_Tips_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/Y游戏内文字_Strings_Tips_hotfix.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13DEDF7-C6C8-4CE0-9A2E-54D89F3CF4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C156C387-4FA8-4883-A220-22F578503CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -143,55 +143,55 @@
 在攻城模式下所有的兵种被击溃后均不会复活。战场上双方上场士兵数的总和不会超过设置内的【最大战斗规模】，暂时无法上场的士兵将作为【援军】，定期刷新在大本营内；攻方的NPC（包括玩家）将会有2次重生的机会，守方的NPC（包括玩家）则可以无限次复活，在攻城模式下，最先占据所有据点的一方即算取得胜利。</t>
   </si>
   <si>
-    <t>Presione la tecla de acceso rápido de Sprint para montar más rápido mientras se monta después de activar el talento del jinete Swift.</t>
-  </si>
-  <si>
-    <t>Mantenga presionada su tecla de acceso rápido "Speed ​​Up Juego" para acelerar el tiempo. ¡Pasa más tiempo jugando y menos tiempo esperando!</t>
-  </si>
-  <si>
-    <t>Hay una posibilidad de que los enemigos dejen caer su equipo una vez derrotado. ¡Presta más atención a cualquier persona con equipo brillante!</t>
-  </si>
-  <si>
-    <t>El mayor favor con una tribu te consigue mejor las probabilidades de reclutar tropas de alto nivel.</t>
-  </si>
-  <si>
-    <t>El saqueo de una caravana hará que pierdas el favor de su ciudad. Proceda con precaución.</t>
-  </si>
-  <si>
-    <t>Use el panel de estrategia durante un asedio para asignar recursos para resucitar o reagrupar tropas.</t>
-  </si>
-  <si>
-    <t>Presionar su tecla de acceso rápido de "sujeción" y apuntar a un enemigo te obliga a atacar desde tu ubicación actual.</t>
-  </si>
-  <si>
-    <t>La burla obliga a los enemigos cercanos a atacar. Tus enemigos también pueden tener este truco en su arsenal.</t>
-  </si>
-  <si>
-    <t>Las tropas pueden mejorarse una vez que alcancen un cierto nivel. Algunas tropas pueden tener diferentes opciones de actualización. ¡Planifique y personalice su fiesta con cuidado!</t>
-  </si>
-  <si>
-    <t>Debe obtener un permiso comercial antes de poder hacer negocios o tropas de reunión en la ciudad. ¡Desbloquee los permisos comerciales para todas las ciudades que visite!</t>
-  </si>
-  <si>
-    <t>La probabilidad de que las tropas mueran aumenten si tus tropas tienen hambre. Asegúrese de mantener suficientes suministros.</t>
-  </si>
-  <si>
-    <t>Los héroes que conoces en Salzaar tienen intereses específicos. Apuntarlos con los regalos correctos para ganar favor y mejorar sus posibilidades de reclutarlos.</t>
-  </si>
-  <si>
-    <t>El equipo se desgasta en la batalla. Recuerde reparar su equipo de vez en cuando.</t>
-  </si>
-  <si>
-    <t>Un escuadrón entero de tropas desaparecerá una vez que todas sus tropas estén fuertemente heridas. Esté atento a un elixir especial que pueda revivirlos.</t>
-  </si>
-  <si>
-    <t>Reclutar tropas de diferentes ciudades produce grandes diferencias, particularmente una vez mejoradas a niveles más altos. Intente usar una variedad de tropas.</t>
-  </si>
-  <si>
-    <t>Ahora estás en modo Asedio.
-El tiempo del juego se moverá lentamente después de abrir su mapa táctico y interfaz de estrategia. Desde este punto de vista, puede ajustar la estrategia de cada unidad y observar toda la situación del campo de batalla. Se puede acceder a este mapa táctico en cualquier momento durante la batalla utilizando su tecla de acceso rápido.
-En modo asedio, ninguna tropa resucitará después de ser derrotadas. El número total de tropas en cada lado no excederá la "escala de batalla máxima" en la configuración de su juego. Las tropas que no pueden luchar debido a este límite serán generadas en el campamento base como "refuerzos". Los héroes (incluido el jugador) en la fuerza de ataque tendrán 2 oportunidades de reaparecer; Los héroes (incluido el jugador) en la fuerza defensora pueden reaparecer indefinidamente.
-Cómo ganar: la primera parte en ocupar todas las fortalezas de las fortalezas de la victoria.</t>
+    <t>Pressione a tecla de atalho de Sprint para cavalgar mais rápido enquanto estiver montado após ativar o talento do Corredor Ágil.</t>
+  </si>
+  <si>
+    <t>Mantenha pressionada a tecla de atalho "Acelerar o jogo" para acelerar o tempo. Passe mais tempo jogando e menos tempo esperando!</t>
+  </si>
+  <si>
+    <t>Existe a possibilidade de que os inimigos deixem cair seus equipamentos após serem derrotados. Preste atenção especial a qualquer pessoa com equipamentos brilhantes!</t>
+  </si>
+  <si>
+    <t>Favorecer uma tribo aumenta suas chances de recrutar tropas de alto nível.</t>
+  </si>
+  <si>
+    <t>Pilhar uma caravana fará com que você perca Favorecimento na cidade deles. Prossiga com cautela.</t>
+  </si>
+  <si>
+    <t>Use o painel de Estratégia durante um cerco para alocar recursos para ressuscitar ou reunir tropas.</t>
+  </si>
+  <si>
+    <t>Pressionar a tecla de atalho "Manter posição" e mirar em um inimigo força você a atacar a partir de sua localização atual.</t>
+  </si>
+  <si>
+    <t>Provocar força inimigos próximos a atacar. Seus inimigos também podem ter esse truque em seu arsenal.</t>
+  </si>
+  <si>
+    <t>As tropas podem ser atualizadas uma vez que atingem um certo nível. Algumas tropas podem ter diferentes opções de atualização. Planeje e personalize seu grupo cuidadosamente!</t>
+  </si>
+  <si>
+    <t>Você deve obter uma Licença de Comércio antes de fazer negócios ou reunir tropas na cidade. Desbloqueie Licenças de Comércio para todas as cidades que você visitar!</t>
+  </si>
+  <si>
+    <t>A probabilidade de as tropas morrerem aumenta se suas tropas estiverem com fome. Certifique-se de manter suprimentos suficientes.</t>
+  </si>
+  <si>
+    <t>Os heróis que você encontra em Salzaar têm interesses específicos. Alvo-los com os presentes certos para ganhar Favorecimento e melhorar suas chances de recrutá-los.</t>
+  </si>
+  <si>
+    <t>Os equipamentos se desgastam na batalha. Lembre-se de reparar seus equipamentos de tempos em tempos.</t>
+  </si>
+  <si>
+    <t>Uma esquadrão inteiro de tropas desaparecerá uma vez que todas as suas tropas estiverem gravemente feridas. Fique atento a um elixir especial que pode revivê-los.</t>
+  </si>
+  <si>
+    <t>Recrutar tropas de diferentes cidades gera diferenças significativas, especialmente quando atualizadas para níveis mais altos. Tente usar uma variedade de tropas.</t>
+  </si>
+  <si>
+    <t>Você está agora no Modo de Cerco.
+O tempo de jogo se moverá lentamente depois de abrir seu mapa tático e interface de estratégia. Nesta visualização, você pode ajustar a estratégia de cada unidade e observar a situação do campo de batalha inteiro. Este mapa tático pode ser acessado a qualquer momento durante a batalha usando sua tecla de atalho definida.
+No Modo de Cerco, nenhuma tropa será ressuscitada após ser derrotada. O número total de tropas de cada lado não excederá a "Escala Máxima de Batalha" em suas configurações de jogo. Tropas que não podem lutar devido a esse limite serão geradas no acampamento base como "Reforços". Heróis (incluindo o jogador) na força atacante terão 2 chances de ressurgir; heróis (incluindo o jogador) na força defensora podem ressurgir indefinidamente.
+Como vencer: A primeira parte a ocupar todas as fortalezas reivindica a vitória.</t>
   </si>
 </sst>
 </file>
@@ -264,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -505,13 +505,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="213.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">

--- a/tradept/Excel/Localization/english/Y游戏内文字_Strings_Tips_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/Y游戏内文字_Strings_Tips_hotfix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\Main\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38402203-CD79-4575-8D3A-D472B8451F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D812A9-4221-4CDF-9329-54A3927CFD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,10 +174,10 @@
     <t>Recrutar tropas de cidades diferentes resulta em diferenças significativas, especialmente quando aprimoradas para níveis mais altos. Experimente usar uma variedade de tropas.</t>
   </si>
   <si>
-    <t>Você está agora no Modo de Cerco.
+    <t>"Você está agora no Modo de Cerco.
 O tempo do jogo avançará lentamente após abrir o mapa tático e a interface de estratégia. Nesta visão, você pode ajustar a estratégia de cada unidade e observar toda a situação do campo de batalha. Este mapa tático pode ser acessado a qualquer momento durante a batalha usando a tecla de atalho definida.
 No Modo de Cerco, nenhuma tropa ressuscitará após ser derrotada. O número total de tropas de cada lado não excederá a "Escala Máxima de Batalha" em suas configurações de jogo. Tropas que não podem lutar devido a esse limite aparecerão no acampamento base como "Reforços". Heróis (incluindo o jogador) na força atacante terão 2 chances de ressurgir; heróis (incluindo o jogador) na força defensora podem ressurgir indefinidamente.
-Como vencer: A primeira equipe a ocupar todas as fortalezas reivindica a vitória.</t>
+Como vencer: A primeira equipe a ocupar todas as fortalezas reivindica a vitória."</t>
   </si>
 </sst>
 </file>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C428"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
